--- a/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>0,0; 4,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,72</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 5,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,32</t>
+          <t>0,34; 3,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,61</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,78</t>
+          <t>1,28; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,93</t>
+          <t>0,59; 3,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,83</t>
+          <t>1,99; 4,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,37</t>
+          <t>0,16; 1,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,58</t>
+          <t>0,16; 1,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,82</t>
+          <t>0,11; 0,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,9</t>
+          <t>1,98; 3,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,83</t>
+          <t>0,08; 0,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,89</t>
+          <t>0,54; 1,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,68</t>
+          <t>0,13; 0,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,62</t>
+          <t>1,51; 3,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,64</t>
+          <t>0,88; 2,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,11</t>
+          <t>0,6; 2,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,17</t>
+          <t>0,14; 1,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,9</t>
+          <t>3,27; 5,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,71</t>
+          <t>1,67; 3,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,58</t>
+          <t>1,0; 2,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,2</t>
+          <t>0,31; 1,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,31</t>
+          <t>2,64; 4,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,88</t>
+          <t>1,53; 2,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,13</t>
+          <t>0,93; 2,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,0</t>
+          <t>0,29; 0,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,06</t>
+          <t>1,32; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,77</t>
+          <t>1,11; 3,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,73</t>
+          <t>0,82; 2,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,56</t>
+          <t>0,16; 1,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,62</t>
+          <t>2,63; 5,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,1</t>
+          <t>0,52; 2,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,0</t>
+          <t>2,32; 5,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,93</t>
+          <t>0,1; 0,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,26</t>
+          <t>2,27; 4,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,4</t>
+          <t>0,98; 2,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,41</t>
+          <t>1,78; 3,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,96</t>
+          <t>0,18; 0,92</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,16</t>
+          <t>3,46; 6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,69</t>
+          <t>1,56; 3,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,42</t>
+          <t>0,69; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,16</t>
+          <t>1,92; 4,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,38</t>
+          <t>5,18; 8,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,85</t>
+          <t>1,2; 2,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,81</t>
+          <t>1,8; 3,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,18</t>
+          <t>2,4; 4,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,72</t>
+          <t>4,67; 6,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,88</t>
+          <t>1,57; 3,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,85</t>
+          <t>1,46; 2,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,99</t>
+          <t>2,47; 3,96</t>
         </is>
       </c>
     </row>
@@ -1424,52 +1424,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,64</t>
+          <t>2,38; 3,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,12</t>
+          <t>1,27; 2,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,81</t>
+          <t>1,01; 1,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,61</t>
+          <t>0,8; 1,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,43</t>
+          <t>3,97; 5,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,11</t>
+          <t>1,23; 2,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,68</t>
+          <t>1,65; 2,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,66</t>
+          <t>1,0; 1,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,35</t>
+          <t>3,36; 4,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,03</t>
+          <t>1,36; 2,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,48</t>
+          <t>1,01; 1,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,42</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,86</t>
+          <t>1,3; 3,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,85</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,07</t>
+          <t>0,68; 3,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,8</t>
+          <t>2,09; 4,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,52</t>
+          <t>0,16; 1,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,94</t>
+          <t>1,95; 3,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,75</t>
+          <t>0,08; 0,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,79</t>
+          <t>0,53; 1,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,53</t>
+          <t>1,47; 3,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,57</t>
+          <t>0,92; 2,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,0</t>
+          <t>0,63; 2,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,91</t>
+          <t>3,18; 5,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,96</t>
+          <t>1,68; 3,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,74</t>
+          <t>1,0; 2,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,27</t>
+          <t>2,64; 4,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,83</t>
+          <t>1,5; 2,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,02</t>
+          <t>0,96; 2,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,97</t>
+          <t>1,43; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,49</t>
+          <t>1,12; 3,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,81</t>
+          <t>0,9; 2,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,63</t>
+          <t>2,52; 5,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,03</t>
+          <t>0,53; 2,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,0</t>
+          <t>2,18; 5,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,22</t>
+          <t>2,32; 4,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,38</t>
+          <t>0,99; 2,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,47</t>
+          <t>1,8; 3,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,14</t>
+          <t>3,43; 6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,7</t>
+          <t>1,47; 3,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,4</t>
+          <t>0,73; 2,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,47</t>
+          <t>5,15; 8,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,94</t>
+          <t>1,22; 3,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,95</t>
+          <t>1,81; 3,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,71</t>
+          <t>4,69; 6,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,0</t>
+          <t>1,56; 2,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,83</t>
+          <t>1,51; 2,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,61</t>
+          <t>2,41; 3,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,21</t>
+          <t>1,24; 2,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,86</t>
+          <t>0,97; 1,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,39</t>
+          <t>3,97; 5,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,1</t>
+          <t>1,21; 2,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,65</t>
+          <t>1,69; 2,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,34</t>
+          <t>3,38; 4,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,0</t>
+          <t>1,34; 1,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,13</t>
+          <t>1,47; 2,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,66</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>0,0; 5,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,18</t>
+          <t>0,34; 3,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,32 +864,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,81</t>
+          <t>1,31; 3,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,03</t>
+          <t>0,55; 2,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,93</t>
+          <t>1,98; 4,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,32</t>
+          <t>0,16; 1,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,73</t>
+          <t>0,12; 0,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,81</t>
+          <t>1,92; 3,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,76</t>
+          <t>0,08; 0,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,88</t>
+          <t>0,54; 1,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,62</t>
+          <t>0,13; 0,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,48</t>
+          <t>1,57; 3,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,56</t>
+          <t>0,92; 2,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,02</t>
+          <t>0,6; 2,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,19</t>
+          <t>0,14; 1,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,84</t>
+          <t>3,28; 5,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,77</t>
+          <t>1,71; 3,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,69</t>
+          <t>0,98; 2,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,25</t>
+          <t>0,32; 1,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,28</t>
+          <t>2,61; 4,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,87</t>
+          <t>1,54; 2,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,13</t>
+          <t>0,94; 2,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,97</t>
+          <t>0,35; 1,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,03</t>
+          <t>1,33; 4,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,54</t>
+          <t>1,21; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,93</t>
+          <t>0,83; 2,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,48</t>
+          <t>0,14; 1,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,6</t>
+          <t>2,64; 5,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,02</t>
+          <t>0,52; 2,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,04</t>
+          <t>2,2; 5,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,87</t>
+          <t>0,13; 0,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,25</t>
+          <t>2,31; 4,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,37</t>
+          <t>1,02; 2,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,54</t>
+          <t>1,78; 3,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,92</t>
+          <t>0,2; 0,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,14</t>
+          <t>3,32; 6,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,69</t>
+          <t>1,48; 3,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,44</t>
+          <t>0,76; 2,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,24</t>
+          <t>1,9; 4,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 8,22</t>
+          <t>5,26; 8,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,05</t>
+          <t>1,13; 2,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,91</t>
+          <t>1,8; 3,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,53</t>
+          <t>2,33; 4,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,76</t>
+          <t>4,6; 6,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,99</t>
+          <t>1,52; 2,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,78</t>
+          <t>1,46; 2,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,96</t>
+          <t>2,4; 3,99</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,67</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,18</t>
+          <t>1,23; 2,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,81</t>
+          <t>0,98; 1,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,62</t>
+          <t>0,83; 1,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,46</t>
+          <t>4,0; 5,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,1</t>
+          <t>1,22; 2,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,74</t>
+          <t>1,67; 2,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,71</t>
+          <t>0,98; 1,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,32</t>
+          <t>3,38; 4,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,99</t>
+          <t>1,35; 2,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,14</t>
+          <t>1,45; 2,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,53</t>
+          <t>0,97; 1,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>1,19; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,72</t>
+          <t>0,57; 2,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>1,88; 4,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,13; 1,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,13; 1,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,09; 0,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,32</t>
+          <t>1,78; 3,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,12; 0,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,48; 1,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,11; 0,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>1,45%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,22%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,78</t>
+          <t>1,57; 3,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,92; 2,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,93</t>
+          <t>0,6; 2,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,09; 1,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,83</t>
+          <t>3,28; 5,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,37</t>
+          <t>1,71; 3,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,58</t>
+          <t>0,98; 2,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,82</t>
+          <t>0,33; 1,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,9</t>
+          <t>2,61; 4,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,83</t>
+          <t>1,54; 2,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,89</t>
+          <t>0,94; 2,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,68</t>
+          <t>0,29; 0,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,62</t>
+          <t>1,33; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,64</t>
+          <t>1,21; 3,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,11</t>
+          <t>0,83; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,17</t>
+          <t>0,14; 1,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,9</t>
+          <t>2,64; 5,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,71</t>
+          <t>0,52; 2,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,58</t>
+          <t>2,2; 5,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,2</t>
+          <t>0,1; 0,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,31</t>
+          <t>2,31; 4,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,88</t>
+          <t>1,02; 2,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,13</t>
+          <t>1,78; 3,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,0</t>
+          <t>0,18; 0,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,06</t>
+          <t>3,32; 6,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,77</t>
+          <t>1,48; 3,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,73</t>
+          <t>0,76; 2,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,56</t>
+          <t>1,92; 4,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,62</t>
+          <t>5,26; 8,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,1</t>
+          <t>1,13; 2,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,0</t>
+          <t>1,8; 3,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,93</t>
+          <t>2,22; 4,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,26</t>
+          <t>4,6; 6,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,4</t>
+          <t>1,52; 2,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,41</t>
+          <t>1,46; 2,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,96</t>
+          <t>2,35; 3,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,16</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,69</t>
+          <t>1,23; 2,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,42</t>
+          <t>0,98; 1,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,16</t>
+          <t>0,75; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,38</t>
+          <t>4,0; 5,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,85</t>
+          <t>1,22; 2,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,81</t>
+          <t>1,67; 2,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,18</t>
+          <t>0,9; 1,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,72</t>
+          <t>3,38; 4,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,88</t>
+          <t>1,35; 2,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,85</t>
+          <t>1,45; 2,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,99</t>
+          <t>0,91; 1,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,94%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 3,64</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 2,12</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 1,81</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 1,61</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 5,43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 2,11</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 2,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 1,66</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 4,35</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 2,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 2,13</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 1,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
